--- a/public/templates/order.xlsx
+++ b/public/templates/order.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ocr\public\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F34E2B-60FB-43B4-AEAF-98C42F72C55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2508E5B-0FD9-48CA-A8B0-F934F32B6284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +12,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,7 +28,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+  <si>
+    <t>令和8年1月29日</t>
+  </si>
+  <si>
+    <t>御請求書（令和　年　月度）</t>
+  </si>
   <si>
     <t>御中</t>
   </si>
@@ -45,49 +43,25 @@
   </si>
   <si>
     <t>＜会社名＞阪南理美容株式会社</t>
-    <rPh sb="5" eb="10">
-      <t>ハンナンリビヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>＜住所＞大阪府藤井寺市春日丘3丁目12-1</t>
-    <rPh sb="4" eb="7">
-      <t>オオサカフ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>フジイデラシ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>カスガオカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>チョウメ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>下記の通り、ご請求申し上げます。</t>
   </si>
   <si>
     <t>TEL：072-952-3667</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ご請求金額
 (消費税込み)</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>FAX：072-952-4810</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>登録番号：T7-1201-0103-2980</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>月</t>
@@ -99,72 +73,36 @@
     <t>曜日</t>
   </si>
   <si>
-    <t>カット</t>
-  </si>
-  <si>
-    <t>カラー 
-(白髪染め)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>パーマ</t>
-  </si>
-  <si>
-    <t>ヘアー
-マニキュア</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>顔そり</t>
-  </si>
-  <si>
-    <t>シャンプー</t>
-  </si>
-  <si>
-    <t>料金</t>
+    <t>合計金額(税込み10%)</t>
+  </si>
+  <si>
+    <t>振込先：</t>
+  </si>
+  <si>
+    <t>三菱UFJ銀行　藤井寺支店</t>
+  </si>
+  <si>
+    <t>普通　1413280</t>
+  </si>
+  <si>
+    <t>名義：</t>
+  </si>
+  <si>
+    <t>ハンナンリビヨウ（カ</t>
+  </si>
+  <si>
+    <t>合計金額</t>
+    <rPh sb="0" eb="4">
+      <t>ゴウケイキンガク</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>備考</t>
-  </si>
-  <si>
-    <t>合計金額(税込み10%)</t>
-    <rPh sb="5" eb="7">
-      <t>ゼイコ</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>振込先：</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>三菱UFJ銀行　藤井寺支店</t>
-    <rPh sb="0" eb="2">
-      <t>ミツビシ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>フジイデラ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>普通　1413280</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>名義：</t>
-  </si>
-  <si>
-    <t>ハンナンリビヨウ（カ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>御請求書（令和　年　月度）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>令和　　年　　月　　日</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="14"/>
   </si>
 </sst>
 </file>
@@ -175,14 +113,7 @@
     <numFmt numFmtId="176" formatCode="#,##0&quot;円&quot;"/>
     <numFmt numFmtId="177" formatCode="[$¥-411]#,##0"/>
   </numFmts>
-  <fonts count="16">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,13 +127,6 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -290,19 +214,20 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -316,8 +241,26 @@
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -567,180 +510,345 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="107">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="79">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1019,15 +1127,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:F28"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="18" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1044,7 +1155,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="18" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1061,7 +1172,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="18" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1078,7 +1189,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" ht="18" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1089,15 +1200,15 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
+      <c r="K4" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="18" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1114,7 +1225,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="18" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1131,7 +1242,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="18" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1148,43 +1259,43 @@
       <c r="N7" s="2"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="18" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
+      <c r="B8" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" ht="18" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="18" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1201,15 +1312,15 @@
       <c r="N10" s="2"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" ht="18" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="77" t="s">
-        <v>0</v>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="34" t="s">
+        <v>2</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1220,45 +1331,45 @@
       <c r="N11" s="2"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="18" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="21"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="K12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" ht="18" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="K13" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+    </row>
+    <row r="14" spans="1:15" ht="18" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1269,79 +1380,79 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="K14" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+    </row>
+    <row r="15" spans="1:15" ht="18" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
+      <c r="B15" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="K15" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+    </row>
+    <row r="16" spans="1:15" ht="18" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="66">
+      <c r="B16" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="49"/>
+      <c r="D16" s="52">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="68"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="K16" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+    </row>
+    <row r="17" spans="1:15" ht="18" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="K17" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+    </row>
+    <row r="18" spans="1:15" ht="18" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1358,7 +1469,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" ht="18" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1375,322 +1486,274 @@
       <c r="N19" s="2"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" ht="18" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="49" t="s">
+      <c r="B20" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="56" t="s">
+      <c r="C20" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="D20" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="E20" s="58"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="80"/>
+      <c r="M20" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="86"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" ht="18" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" ht="18" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" ht="18" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" ht="18" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" ht="18" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" ht="18" customHeight="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" ht="18" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" ht="18" customHeight="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" ht="18" customHeight="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" ht="18" customHeight="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" ht="18" customHeight="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" ht="18" customHeight="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" ht="18" customHeight="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="N20" s="28"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="8">
-        <v>1800</v>
-      </c>
-      <c r="F22" s="9">
-        <v>3800</v>
-      </c>
-      <c r="G22" s="9">
-        <v>3800</v>
-      </c>
-      <c r="H22" s="9">
-        <v>5000</v>
-      </c>
-      <c r="I22" s="9">
-        <v>500</v>
-      </c>
-      <c r="J22" s="10">
-        <v>500</v>
-      </c>
-      <c r="K22" s="20"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="78">
-        <f>E22*E25</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="78">
-        <f>F22*F25</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="78">
-        <f t="shared" ref="F23:J23" si="0">G22*G25</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="78">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="78">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="78">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="35">
-        <f>E23+F23+G23+H23+I23+J23</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="24"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="1"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="1"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="1"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="1"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="1"/>
-      <c r="B33" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="23">
-        <f>SUM(K23:L32)</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="24"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="28"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="73"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" ht="18" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="30"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="74"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" ht="18" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1707,7 +1770,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" ht="18" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1718,152 +1781,82 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="7"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="14"/>
+      <c r="K36" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="5"/>
+    </row>
+    <row r="37" spans="1:15" ht="18" customHeight="1">
+      <c r="A37" s="12"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="16"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="14"/>
+      <c r="K37" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="14"/>
+    </row>
+    <row r="38" spans="1:15" ht="18" customHeight="1">
+      <c r="A38" s="12"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="16"/>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="14"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="14"/>
+    </row>
+    <row r="39" spans="1:15" ht="18" customHeight="1">
+      <c r="A39" s="12"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="16"/>
+      <c r="K39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="B8:N9"/>
-    <mergeCell ref="B11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:G17"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
+  <mergeCells count="76">
     <mergeCell ref="K23:L24"/>
     <mergeCell ref="M23:N24"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:L22"/>
-    <mergeCell ref="M20:N22"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="K27:L28"/>
-    <mergeCell ref="M27:N28"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:L26"/>
-    <mergeCell ref="M25:N26"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="M29:N30"/>
     <mergeCell ref="B33:J34"/>
     <mergeCell ref="K33:L34"/>
     <mergeCell ref="M33:N34"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
     <mergeCell ref="K31:L32"/>
     <mergeCell ref="M31:N32"/>
     <mergeCell ref="B31:B32"/>
@@ -1871,8 +1864,73 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="M29:N30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="K27:L28"/>
+    <mergeCell ref="M27:N28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="K25:L26"/>
+    <mergeCell ref="M25:N26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:G17"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:L22"/>
+    <mergeCell ref="M20:N22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="B8:N9"/>
+    <mergeCell ref="B11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="K15:O15"/>
   </mergeCells>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>